--- a/biology/Zoologie/Chlosyne_whitneyi/Chlosyne_whitneyi.xlsx
+++ b/biology/Zoologie/Chlosyne_whitneyi/Chlosyne_whitneyi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chlosyne whitneyi est un insecte lépidoptère de la famille des Nymphalidae de la sous-famille des Nymphalinae et du genre Chlosyne.
 </t>
@@ -511,9 +523,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chlosyne whitneyi a été nommée par Hans Hermann Behr en 1863[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chlosyne whitneyi a été nommée par Hans Hermann Behr en 1863.
 </t>
         </is>
       </c>
@@ -542,13 +556,12 @@
           <t>Sous-espèce</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chlosyne whitneyi damoetas[1].
-Chlosyne whitneyi malcolmi Comstock, 1926
-Noms vernaculaires
-Chlosyne whitneyi damoetas se nomme en anglais Rockslide Checkerspot[1].
-</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Chlosyne whitneyi damoetas.
+Chlosyne whitneyi malcolmi Comstock, 1926</t>
         </is>
       </c>
     </row>
@@ -573,16 +586,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Sous-espèce</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chlosyne damoetas est un papillon jaune orange de taille moyenne. Son envergure varie entre 32 et 41 mm
-Le dessus présente des lignes de damiers jaune orange terne entourés de marron avec une partion basale marron aux postérieures.
-Le revers des antérieures est à damiers jaune orange alors que les postérieures sont à lignes de damiers blancs  et de damiers orange limités de marron[2]
-Chenille
-La chenille est semblable à celle de Chlosyne ascatus, noire, ornée de points crème, de croissants orange et d'épines de couleur noire[3]
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chlosyne whitneyi damoetas se nomme en anglais Rockslide Checkerspot.
 </t>
         </is>
       </c>
@@ -608,15 +623,16 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Chlosyne whitneyi hiverne au troisième ou au quatrième stade de la chenille[2].
-Plantes hôtes
-Les plantes hôtes de la chenille sont Erigeron leiomeris et Solidago multiradiata [1].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chlosyne damoetas est un papillon jaune orange de taille moyenne. Son envergure varie entre 32 et 41 mm
+Le dessus présente des lignes de damiers jaune orange terne entourés de marron avec une partion basale marron aux postérieures.
+Le revers des antérieures est à damiers jaune orange alors que les postérieures sont à lignes de damiers blancs  et de damiers orange limités de marron
 </t>
         </is>
       </c>
@@ -642,16 +658,199 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille est semblable à celle de Chlosyne ascatus, noire, ornée de points crème, de croissants orange et d'épines de couleur noire
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Chlosyne_whitneyi</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chlosyne_whitneyi</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chlosyne whitneyi hiverne au troisième ou au quatrième stade de la chenille.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Chlosyne_whitneyi</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chlosyne_whitneyi</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de la chenille sont Erigeron leiomeris et Solidago multiradiata .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Chlosyne_whitneyi</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chlosyne_whitneyi</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent en Amérique du Nord uniquement dans les Montagnes Rocheuses, au Canada dans l'Alberta et la Colombie-Britannique et aux USA dans le Montana, le Wyoming, l'Utah, le Colorado et la Californie[1],[2].
-Biotope
-Il est surtout présent dans les montagnes en altitude au-dessus de la limite de la forêt sur les éboulis[2].
-Protection
-Pas de statut de protection particulier[2].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent en Amérique du Nord uniquement dans les Montagnes Rocheuses, au Canada dans l'Alberta et la Colombie-Britannique et aux USA dans le Montana, le Wyoming, l'Utah, le Colorado et la Californie,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Chlosyne_whitneyi</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chlosyne_whitneyi</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est surtout présent dans les montagnes en altitude au-dessus de la limite de la forêt sur les éboulis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Chlosyne_whitneyi</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Chlosyne_whitneyi</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
